--- a/data/HDR_Table_6.xlsx
+++ b/data/HDR_Table_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mari9\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D53DA1A-302F-403C-89EB-44AB3EA909D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E4162E-AEE7-42CD-945A-ECB4FF658692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,12 +468,6 @@
     <t xml:space="preserve">Population in severe multidimensional poverty </t>
   </si>
   <si>
-    <t>Number of poor (year of the survey)</t>
-  </si>
-  <si>
-    <t>Number of poor (2016)</t>
-  </si>
-  <si>
     <t>Population vulnerable to multidimensional poverty</t>
   </si>
   <si>
@@ -486,9 +480,6 @@
     <t>Percent pop in multidimensional poverty</t>
   </si>
   <si>
-    <t>pop in multidimensional poverty, intensity of deprivation</t>
-  </si>
-  <si>
     <t>Percent health contribution of deprivation</t>
   </si>
   <si>
@@ -498,11 +489,19 @@
     <t>Percent standrad of living contribution of deprivation</t>
   </si>
   <si>
-    <t>Population living below national poverty line
-(%)</t>
-  </si>
-  <si>
-    <t>Population living below income poverty line, PPP $1.90</t>
+    <t>pop in multidimensional poverty intensity of deprivation</t>
+  </si>
+  <si>
+    <t>Number of poor year of the survey</t>
+  </si>
+  <si>
+    <t>Number of poor 2016</t>
+  </si>
+  <si>
+    <t>Population living below national poverty line</t>
+  </si>
+  <si>
+    <t>Population living below income poverty line PPP 1.90</t>
   </si>
 </sst>
 </file>
@@ -931,7 +930,7 @@
   <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:XFD186"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -964,31 +963,31 @@
         <v>145</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>146</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>157</v>
@@ -2350,7 +2349,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>19</v>
@@ -4138,7 +4137,7 @@
     </row>
     <row r="74" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>19</v>
